--- a/Food.xlsx
+++ b/Food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38D203E-A723-4A61-AE63-2A1E2C0142AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F71CE-0422-429E-B160-5BC0A4B8055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="13680" xr2:uid="{819DD18E-5329-4852-A0B7-E7D482E21657}"/>
   </bookViews>
@@ -2359,7 +2359,7 @@
   <dimension ref="A1:C690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>

--- a/Food.xlsx
+++ b/Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F71CE-0422-429E-B160-5BC0A4B8055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6BE25-C2E7-4E7A-9F8F-4142E1E76E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="13680" xr2:uid="{819DD18E-5329-4852-A0B7-E7D482E21657}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" xr2:uid="{819DD18E-5329-4852-A0B7-E7D482E21657}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Food.xlsx
+++ b/Food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6BE25-C2E7-4E7A-9F8F-4142E1E76E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F37DB-BB4F-47D1-8C8C-4EBBF63772CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" xr2:uid="{819DD18E-5329-4852-A0B7-E7D482E21657}"/>
   </bookViews>

--- a/Food.xlsx
+++ b/Food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F37DB-BB4F-47D1-8C8C-4EBBF63772CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDB3BED-53DC-43F8-A417-7EDA8D00870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" xr2:uid="{819DD18E-5329-4852-A0B7-E7D482E21657}"/>
   </bookViews>

--- a/Food.xlsx
+++ b/Food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDB3BED-53DC-43F8-A417-7EDA8D00870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89DBE43-A447-450E-BDFA-81367562E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" xr2:uid="{819DD18E-5329-4852-A0B7-E7D482E21657}"/>
   </bookViews>
@@ -2015,11 +2015,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2359,7 +2359,7 @@
   <dimension ref="A1:C690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2369,12 +2369,12 @@
     <col min="3" max="3" width="37.8984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>629</v>
       </c>
     </row>
